--- a/examples/Australia OGD/go_card_retailers/counters.xlsx
+++ b/examples/Australia OGD/go_card_retailers/counters.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/examples/Australia OGD/go_card_retailers/counters.xlsx
+++ b/examples/Australia OGD/go_card_retailers/counters.xlsx
@@ -377,7 +377,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -394,7 +394,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -411,7 +411,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -428,7 +428,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -445,7 +445,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -462,7 +462,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -632,12 +632,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Format Consistency</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Error: Value '' does not match regex '^(\+|-)?(?:90(?:(?:\.0{1,6})?)|(?:[0-9]|[1-8][0-9])(?:(?:\.[0-9]{1,6})?))$'</t>
+          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Error: Value '' does not match regex '^(\+|-)?(?:90(?:(?:\.0{1,6})?)|(?:[0-9]|[1-8][0-9])(?:(?:\.[0-9]{1,6})?))$'</t>
+          <t>Error: Value '' does not match regex #'^(\+|-)?(?:90(?:(?:\.0{1,6})?)|(?:[0-9]|[1-8][0-9])(?:(?:\.[0-9]{1,6})?))$'</t>
         </is>
       </c>
     </row>
@@ -683,12 +683,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Format Consistency</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
+          <t>Error: Value '' does not match regex #'^(\+|-)?(?:90(?:(?:\.0{1,6})?)|(?:[0-9]|[1-8][0-9])(?:(?:\.[0-9]{1,6})?))$'</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Error: Value '' does not match regex '^(\+|-)?(?:90(?:(?:\.0{1,6})?)|(?:[0-9]|[1-8][0-9])(?:(?:\.[0-9]{1,6})?))$'</t>
+          <t>Error: Value '' does not match regex #'^(\+|-)?(?:90(?:(?:\.0{1,6})?)|(?:[0-9]|[1-8][0-9])(?:(?:\.[0-9]{1,6})?))$'</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -734,12 +734,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Format Consistency</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Error: Value '' does not match regex '^(\+|-)?(?:180(?:(?:\.0{1,6})?)|(?:[0-9]|[1-9][0-9]|1[0-7][0-9])(?:(?:\.[0-9]{1,6})?))$'</t>
+          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Error: Value '' does not match regex '^(\+|-)?(?:180(?:(?:\.0{1,6})?)|(?:[0-9]|[1-9][0-9]|1[0-7][0-9])(?:(?:\.[0-9]{1,6})?))$'</t>
+          <t>Error: Value '' does not match regex #'^(\+|-)?(?:180(?:(?:\.0{1,6})?)|(?:[0-9]|[1-9][0-9]|1[0-7][0-9])(?:(?:\.[0-9]{1,6})?))$'</t>
         </is>
       </c>
     </row>
@@ -785,12 +785,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Format Consistency</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
+          <t>Error: Value '' does not match regex #'^(\+|-)?(?:180(?:(?:\.0{1,6})?)|(?:[0-9]|[1-9][0-9]|1[0-7][0-9])(?:(?:\.[0-9]{1,6})?))$'</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Error: Value '' does not match regex '^(\+|-)?(?:180(?:(?:\.0{1,6})?)|(?:[0-9]|[1-9][0-9]|1[0-7][0-9])(?:(?:\.[0-9]{1,6})?))$'</t>
+          <t>Error: Value '' does not match regex #'^(\+|-)?(?:180(?:(?:\.0{1,6})?)|(?:[0-9]|[1-9][0-9]|1[0-7][0-9])(?:(?:\.[0-9]{1,6})?))$'</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Meta Compliance (enumeration)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Meta Compliance (enumeration)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Meta Compliance (enumeration)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Meta Compliance (enumeration)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Meta Compliance (enumeration)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Meta Compliance (enumeration)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
